--- a/gd/数值规划/战斗模拟需求.xlsx
+++ b/gd/数值规划/战斗模拟需求.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\数值规划\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="4605"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="战斗模拟工具需求" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
   <si>
     <t>战斗模拟工具需求</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -360,142 +360,150 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>循环次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结果（1=胜利，0=失败）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗时间</t>
+  </si>
+  <si>
+    <t>怪物1剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物2剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物3剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物4剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物5剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余怪物数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出手回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招使用次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出是第几次循环副本的数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出为该副本的第几对局数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出该对局一共的回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出该对局持续的时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=胜利，0=失败</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出该对局玩家的胜负</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出玩家怪物经过该对局后剩余的血量百分比（若玩家未上阵宠物的显示为空）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出玩家生命值&gt;0的怪物数量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>指玩家怪物总共出手回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>指玩家怪物总共命中回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>指玩家怪物总共暴击回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>指玩家怪物总共使用大招的次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体输出数据同攻击方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>需求根据循环的次数与对局，输出每次循环每个对局对应的log数据</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>循环次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结果（1=胜利，0=失败）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗时间</t>
-  </si>
-  <si>
-    <t>怪物1剩余血量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物2剩余血量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物3剩余血量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物4剩余血量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物5剩余血量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余怪物数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>总出手回合数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中回合数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击回合数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招使用次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出是第几次循环副本的数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出为该副本的第几对局数据</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出该对局一共的回合数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出该对局持续的时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗结果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1=胜利，0=失败</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出该对局玩家的胜负</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出玩家怪物经过该对局后剩余的血量百分比（若玩家未上阵宠物的显示为空）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出玩家生命值&gt;0的怪物数量</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>指玩家怪物总共出手回合数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>指玩家怪物总共命中回合数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>指玩家怪物总共暴击回合数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>指玩家怪物总共使用大招的次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体输出数据同攻击方</t>
+    <t>特殊逻辑</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当判定需要攻击的下一个弱点已死亡，则自动跳过该弱点攻击下一个弱点</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1150,10 +1158,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1559,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z132"/>
+  <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1957,296 +1965,306 @@
         <v>82</v>
       </c>
     </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E80" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B81" s="3" t="s">
+      <c r="F81" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B82" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C82" s="2" t="s">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="C83" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B85" s="2" t="s">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B86" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B88" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="G89" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B90" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B87" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="G88" s="5" t="s">
+      <c r="C90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M90" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5" t="s">
+      <c r="N90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V90" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W90" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X90" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B93" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="C94" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B89" s="2" t="s">
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B96" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D89" s="2" t="s">
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C97" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B99" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C100" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B102" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E89" s="2" t="s">
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M89" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N89" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="S89" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U89" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V89" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W89" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="X89" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B92" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C93" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B95" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C96" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B98" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C99" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B101" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C102" s="2" t="s">
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B105" s="3" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B104" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C105" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C106" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B108" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C107" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C109" s="3" t="s">
-        <v>93</v>
+      <c r="B109" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C110" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C111" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C112" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C113" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C114" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D115" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C117" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D114" s="2" t="s">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D118" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C116" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D117" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C119" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="3"/>
-      <c r="D120" s="2" t="s">
-        <v>115</v>
+      <c r="C120" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C121" s="3"/>
+      <c r="D121" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="C122" s="3"/>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C123" s="3"/>
-      <c r="D123" s="2" t="s">
-        <v>116</v>
+      <c r="C123" s="3" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C124" s="3"/>
+      <c r="D124" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C125" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="C125" s="3"/>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C126" s="3"/>
-      <c r="D126" s="2" t="s">
-        <v>117</v>
+      <c r="C126" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C127" s="3"/>
+      <c r="D127" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C128" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B131" s="3" t="s">
+      <c r="C129" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B132" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C133" s="2" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C132" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G88:P88"/>
-    <mergeCell ref="Q88:X88"/>
+    <mergeCell ref="G89:P89"/>
+    <mergeCell ref="Q89:X89"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/数值规划/战斗模拟需求.xlsx
+++ b/gd/数值规划/战斗模拟需求.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="战斗模拟工具需求" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
   <si>
     <t>战斗模拟工具需求</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -304,10 +304,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>可定义怪物释放大招周期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>使用大招时机</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -336,14 +332,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>需要填写的内容：怪物ID_spellID，大招周期，攻击次数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要填写的内容：回合数，攻击弱点ID</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>填写该模拟需要跑的次数</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -376,9 +364,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>战斗时间</t>
-  </si>
-  <si>
     <t>怪物1剩余血量</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -439,14 +424,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>战斗时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出该对局持续的时间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗结果</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -504,6 +481,22 @@
   </si>
   <si>
     <t>当判定需要攻击的下一个弱点已死亡，则自动跳过该弱点攻击下一个弱点</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要填写的内容：怪物ID_spellID，对局数_回合数（释放大招时间点），攻击次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要填写的内容：间隔回合数，攻击弱点ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>不考虑弱点间关系（即隐藏的弱点也可被攻击到）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可定义怪物释放大招在不同对局的回合数</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -709,7 +702,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +880,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1141,7 +1140,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,6 +1161,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1567,10 +1569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z133"/>
+  <dimension ref="A1:Z132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:W92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1610,7 +1612,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.15">
@@ -1891,7 +1893,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D65" s="2">
         <v>6</v>
       </c>
@@ -1905,366 +1907,365 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C67" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="D68" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E69" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F70" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F70" s="2" t="s">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="F71" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E72" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F71" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E72" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="F73" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E74" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="D77" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E74" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D77" s="2" t="s">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E78" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="E78" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E79" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E80" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.15">
       <c r="F81" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B82" s="3" t="s">
+      <c r="F82" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B84" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C83" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B86" s="2" t="s">
-        <v>121</v>
+      <c r="C85" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="G89" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="F91" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="5"/>
+      <c r="Z91" s="5"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="E92" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="G92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="I92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M92" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P92" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q92" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H90" s="2" t="s">
+      <c r="R92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S92" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J90" s="2" t="s">
+      <c r="T92" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="U92" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="V92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N90" s="2" t="s">
+      <c r="W92" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="B95" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="C96" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="O90" s="2" t="s">
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B98" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C99" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P90" s="2" t="s">
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B101" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C102" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S90" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T90" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="V90" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="W90" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="X90" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B93" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C94" s="2" t="s">
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B104" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C105" s="2" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B96" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C97" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B99" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C100" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B102" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C103" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B105" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C106" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C107" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B108" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B109" s="3" t="s">
-        <v>118</v>
+      <c r="C109" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C110" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C111" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C112" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C113" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D114" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C116" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D117" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C119" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C114" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D115" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C117" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D118" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="3" t="s">
-        <v>99</v>
+      <c r="C120" s="3"/>
+      <c r="D120" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C121" s="3"/>
-      <c r="D121" s="2" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="123" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C123" s="3" t="s">
-        <v>100</v>
+      <c r="C123" s="3"/>
+      <c r="D123" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C124" s="3"/>
-      <c r="D124" s="2" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C125" s="3"/>
+      <c r="C125" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C126" s="3" t="s">
-        <v>101</v>
+      <c r="C126" s="3"/>
+      <c r="D126" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C127" s="3"/>
-      <c r="D127" s="2" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C128" s="3"/>
+      <c r="C128" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C129" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="2" t="s">
-        <v>117</v>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B131" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B132" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C133" s="2" t="s">
-        <v>120</v>
+      <c r="C132" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G89:P89"/>
-    <mergeCell ref="Q89:X89"/>
+    <mergeCell ref="F91:O91"/>
+    <mergeCell ref="P91:W91"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/数值规划/战斗模拟需求.xlsx
+++ b/gd/数值规划/战斗模拟需求.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="4605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="4605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="战斗模拟工具需求" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
   <si>
     <t>战斗模拟工具需求</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -497,6 +498,221 @@
   </si>
   <si>
     <t>可定义怪物释放大招在不同对局的回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结果（1=胜利，0=失败）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物1剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物2剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物3剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物4剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物5剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余怪物数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出手回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招使用次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物1剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物2剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物3剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>性格</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家操作ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>minghe18_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点顺序：</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossMinghe18Karongwp02_0;bossMinghe18Karongwp04_2;bossMinghe18Karongwp05_1;bossMinghe18Karongwp03_0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgMomo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgXiyiren</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgHuapo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgWagui</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgHetong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题为乱码</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>minghe18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出内容错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有怪物剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余怪物数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yueguangsenlin11</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yueguangsenlin1_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本系数调整攻击为1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossMinghe13Zouyincaowp02_5</t>
+  </si>
+  <si>
+    <t>1.模拟时间太长（跑10000会疯掉的）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.模拟多次几率卡死</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.怪物剩余血量（目前是按照站位显示，希望为按照填写的怪物依次显示）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物剩余100%血量（不会任何回复技能），而玩家怪物出手了15次，应该不对吧。。。。。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.剩余怪物数显示只为场上，未计算场下</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.命中目前是100%应该不会出现未命中情况（但是统计目前可能会有未命中）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.大招使用次数输出错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.怀疑跑的时候模拟错误</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +918,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,6 +1104,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1140,7 +1362,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1157,12 +1379,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1571,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:W92"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1933,12 +2161,12 @@
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="E72" s="2" t="s">
@@ -1981,13 +2209,13 @@
       </c>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
@@ -2015,28 +2243,28 @@
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6" t="s">
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
       <c r="X91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
@@ -2272,4 +2500,1476 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>51</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="2">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2">
+        <v>5</v>
+      </c>
+      <c r="O4" s="2">
+        <v>31</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>20</v>
+      </c>
+      <c r="U4" s="2">
+        <v>19</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3</v>
+      </c>
+      <c r="W4" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
+        <v>2</v>
+      </c>
+      <c r="U5" s="2">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>109</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>65</v>
+      </c>
+      <c r="M6" s="2">
+        <v>65</v>
+      </c>
+      <c r="N6" s="2">
+        <v>7</v>
+      </c>
+      <c r="O6" s="2">
+        <v>65</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>44</v>
+      </c>
+      <c r="U6" s="2">
+        <v>44</v>
+      </c>
+      <c r="V6" s="2">
+        <v>3</v>
+      </c>
+      <c r="W6" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="2">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C19" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C29" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C30" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C31" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C32" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C33" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="C34" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>31</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <v>3</v>
+      </c>
+      <c r="L40" s="2">
+        <v>19</v>
+      </c>
+      <c r="M40" s="2">
+        <v>18</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <v>19</v>
+      </c>
+      <c r="P40" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>0</v>
+      </c>
+      <c r="R40" s="7">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <v>12</v>
+      </c>
+      <c r="U40" s="2">
+        <v>11</v>
+      </c>
+      <c r="V40" s="2">
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <v>3</v>
+      </c>
+      <c r="L41" s="2">
+        <v>8</v>
+      </c>
+      <c r="M41" s="2">
+        <v>8</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1</v>
+      </c>
+      <c r="O41" s="2">
+        <v>8</v>
+      </c>
+      <c r="P41" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+      <c r="R41" s="7">
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2">
+        <v>2</v>
+      </c>
+      <c r="U41" s="2">
+        <v>2</v>
+      </c>
+      <c r="V41" s="2">
+        <v>0</v>
+      </c>
+      <c r="W41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>23</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>15</v>
+      </c>
+      <c r="M42" s="2">
+        <v>15</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>15</v>
+      </c>
+      <c r="P42" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0</v>
+      </c>
+      <c r="R42" s="7">
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <v>1</v>
+      </c>
+      <c r="T42" s="2">
+        <v>8</v>
+      </c>
+      <c r="U42" s="2">
+        <v>8</v>
+      </c>
+      <c r="V42" s="2">
+        <v>1</v>
+      </c>
+      <c r="W42" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B43" s="2">
+        <v>2</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>29</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="G43" s="7">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2">
+        <v>3</v>
+      </c>
+      <c r="L43" s="2">
+        <v>19</v>
+      </c>
+      <c r="M43" s="2">
+        <v>19</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>19</v>
+      </c>
+      <c r="P43" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2">
+        <v>10</v>
+      </c>
+      <c r="U43" s="2">
+        <v>10</v>
+      </c>
+      <c r="V43" s="2">
+        <v>2</v>
+      </c>
+      <c r="W43" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B44" s="2">
+        <v>2</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>31</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="G44" s="7">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2">
+        <v>3</v>
+      </c>
+      <c r="L44" s="2">
+        <v>24</v>
+      </c>
+      <c r="M44" s="2">
+        <v>24</v>
+      </c>
+      <c r="N44" s="2">
+        <v>2</v>
+      </c>
+      <c r="O44" s="2">
+        <v>24</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>7</v>
+      </c>
+      <c r="U44" s="2">
+        <v>7</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>108</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>75</v>
+      </c>
+      <c r="M45" s="2">
+        <v>75</v>
+      </c>
+      <c r="N45" s="2">
+        <v>13</v>
+      </c>
+      <c r="O45" s="2">
+        <v>75</v>
+      </c>
+      <c r="P45" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>0</v>
+      </c>
+      <c r="R45" s="7">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>1</v>
+      </c>
+      <c r="T45" s="2">
+        <v>33</v>
+      </c>
+      <c r="U45" s="2">
+        <v>33</v>
+      </c>
+      <c r="V45" s="2">
+        <v>6</v>
+      </c>
+      <c r="W45" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>25</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2">
+        <v>3</v>
+      </c>
+      <c r="L46" s="2">
+        <v>16</v>
+      </c>
+      <c r="M46" s="2">
+        <v>16</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>16</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>9</v>
+      </c>
+      <c r="U46" s="2">
+        <v>9</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B47" s="2">
+        <v>3</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7">
+        <v>1</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>3</v>
+      </c>
+      <c r="L47" s="2">
+        <v>8</v>
+      </c>
+      <c r="M47" s="2">
+        <v>8</v>
+      </c>
+      <c r="N47" s="2">
+        <v>2</v>
+      </c>
+      <c r="O47" s="2">
+        <v>8</v>
+      </c>
+      <c r="P47" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>0</v>
+      </c>
+      <c r="R47" s="7">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>2</v>
+      </c>
+      <c r="U47" s="2">
+        <v>2</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="B48" s="2">
+        <v>3</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2">
+        <v>122</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="G48" s="7">
+        <v>1</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2">
+        <v>3</v>
+      </c>
+      <c r="L48" s="2">
+        <v>87</v>
+      </c>
+      <c r="M48" s="2">
+        <v>87</v>
+      </c>
+      <c r="N48" s="2">
+        <v>10</v>
+      </c>
+      <c r="O48" s="2">
+        <v>87</v>
+      </c>
+      <c r="P48" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>0</v>
+      </c>
+      <c r="R48" s="7">
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <v>0</v>
+      </c>
+      <c r="T48" s="2">
+        <v>35</v>
+      </c>
+      <c r="U48" s="2">
+        <v>35</v>
+      </c>
+      <c r="V48" s="2">
+        <v>4</v>
+      </c>
+      <c r="W48" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B51" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="2">
+        <v>15</v>
+      </c>
+      <c r="E56" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="2">
+        <v>15</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="2">
+        <v>15</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="2">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="2">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B60" s="2">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D60" s="2">
+        <v>15</v>
+      </c>
+      <c r="E60" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B62" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B65" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="C66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B69" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B70" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B71" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B72" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B73" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B74" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B75" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="C76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="U76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
+        <v>23</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="7">
+        <v>0</v>
+      </c>
+      <c r="I77" s="7">
+        <v>0</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0</v>
+      </c>
+      <c r="K77" s="7">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2">
+        <v>0</v>
+      </c>
+      <c r="M77" s="2">
+        <v>15</v>
+      </c>
+      <c r="N77" s="2">
+        <v>15</v>
+      </c>
+      <c r="O77" s="2">
+        <v>0</v>
+      </c>
+      <c r="P77" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q77" s="7">
+        <v>1</v>
+      </c>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7">
+        <v>0</v>
+      </c>
+      <c r="T77" s="2">
+        <v>1</v>
+      </c>
+      <c r="U77" s="2">
+        <v>8</v>
+      </c>
+      <c r="V77" s="2">
+        <v>8</v>
+      </c>
+      <c r="W77" s="2">
+        <v>1</v>
+      </c>
+      <c r="X77" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="C78" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gd/数值规划/战斗模拟需求.xlsx
+++ b/gd/数值规划/战斗模拟需求.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="226">
   <si>
     <t>战斗模拟工具需求</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -713,6 +713,206 @@
   </si>
   <si>
     <t>7.怀疑跑的时候模拟错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.运行会报错（小飞快看一下）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.boss弱点攻击次序错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置为优先攻击：bossMinghe18Karongwp02</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.怪物统计大招使用次数有误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该不会出现31次出手，26次大招的情况（同时log里面也未出现这么多次大招）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已改好啦</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>minghe18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgMomo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgHuapo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgWagui</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结果（1=胜利，0=失败）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物1剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物2剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物3剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物4剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物5剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余怪物数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出手回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招使用次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgWagui</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试修改成正确的刷怪逻辑后</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗结果（1=胜利，0=失败）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物1剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物2剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物3剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物4剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物5剩余血量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余怪物数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>总出手回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击回合数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招使用次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击boss弱点顺序问题</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>已改好</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>打完第一次后，继续打的只会打1次</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前命中为100%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次输出结果的玩家怪物命中回合数会少1，估计是数组从0开始统计未+1的缘故</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好改掉。。。。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1387,11 +1587,11 @@
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1529,6 +1729,125 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22152</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>132907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>362678</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>73940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="708838" y="17388663"/>
+          <a:ext cx="15447619" cy="361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>11076</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>166133</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>554710</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>97642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384448" y="18474069"/>
+          <a:ext cx="6723809" cy="352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>22150</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>99681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>270353</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1395522" y="19880669"/>
+          <a:ext cx="13295238" cy="761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2243,28 +2562,28 @@
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="8"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="8"/>
-      <c r="P91" s="8" t="s">
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
-      <c r="S91" s="8"/>
-      <c r="T91" s="8"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="8"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
       <c r="X91" s="5"/>
       <c r="Z91" s="5"/>
     </row>
@@ -2504,10 +2823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:X197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="O114" sqref="O114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2515,8 +2834,8 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2967,8 +3286,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3968,8 +4287,2891 @@
         <v>171</v>
       </c>
     </row>
+    <row r="80" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B82" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B86" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B88" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C91" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B93" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C94" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B103" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C104" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S104" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="V104" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="W104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="X104" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C105" s="2">
+        <v>1</v>
+      </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
+      <c r="E105" s="2">
+        <v>59</v>
+      </c>
+      <c r="F105" s="2">
+        <v>1</v>
+      </c>
+      <c r="G105" s="7">
+        <v>1</v>
+      </c>
+      <c r="H105" s="7">
+        <v>1</v>
+      </c>
+      <c r="I105" s="7">
+        <v>1</v>
+      </c>
+      <c r="J105" s="7">
+        <v>1</v>
+      </c>
+      <c r="K105" s="7">
+        <v>1</v>
+      </c>
+      <c r="L105" s="2">
+        <v>5</v>
+      </c>
+      <c r="M105" s="2">
+        <v>36</v>
+      </c>
+      <c r="N105" s="2">
+        <v>35</v>
+      </c>
+      <c r="O105" s="2">
+        <v>5</v>
+      </c>
+      <c r="P105" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>0</v>
+      </c>
+      <c r="R105" s="7">
+        <v>0</v>
+      </c>
+      <c r="S105" s="7">
+        <v>0</v>
+      </c>
+      <c r="T105" s="2">
+        <v>0</v>
+      </c>
+      <c r="U105" s="2">
+        <v>23</v>
+      </c>
+      <c r="V105" s="2">
+        <v>19</v>
+      </c>
+      <c r="W105" s="2">
+        <v>10</v>
+      </c>
+      <c r="X105" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2</v>
+      </c>
+      <c r="E106" s="2">
+        <v>20</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1</v>
+      </c>
+      <c r="G106" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H106" s="7">
+        <v>1</v>
+      </c>
+      <c r="I106" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="J106" s="7">
+        <v>1</v>
+      </c>
+      <c r="K106" s="7">
+        <v>1</v>
+      </c>
+      <c r="L106" s="2">
+        <v>5</v>
+      </c>
+      <c r="M106" s="2">
+        <v>13</v>
+      </c>
+      <c r="N106" s="2">
+        <v>13</v>
+      </c>
+      <c r="O106" s="2">
+        <v>3</v>
+      </c>
+      <c r="P106" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="7">
+        <v>0</v>
+      </c>
+      <c r="R106" s="7">
+        <v>0</v>
+      </c>
+      <c r="S106" s="7">
+        <v>0</v>
+      </c>
+      <c r="T106" s="2">
+        <v>0</v>
+      </c>
+      <c r="U106" s="2">
+        <v>7</v>
+      </c>
+      <c r="V106" s="2">
+        <v>7</v>
+      </c>
+      <c r="W106" s="2">
+        <v>0</v>
+      </c>
+      <c r="X106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C107" s="2">
+        <v>1</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3</v>
+      </c>
+      <c r="E107" s="2">
+        <v>77</v>
+      </c>
+      <c r="F107" s="2">
+        <v>0</v>
+      </c>
+      <c r="G107" s="7">
+        <v>0</v>
+      </c>
+      <c r="H107" s="7">
+        <v>0</v>
+      </c>
+      <c r="I107" s="7">
+        <v>0</v>
+      </c>
+      <c r="J107" s="7">
+        <v>0</v>
+      </c>
+      <c r="K107" s="7">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2">
+        <v>0</v>
+      </c>
+      <c r="M107" s="2">
+        <v>46</v>
+      </c>
+      <c r="N107" s="2">
+        <v>46</v>
+      </c>
+      <c r="O107" s="2">
+        <v>3</v>
+      </c>
+      <c r="P107" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q107" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="R107" s="7">
+        <v>0</v>
+      </c>
+      <c r="S107" s="7">
+        <v>0</v>
+      </c>
+      <c r="T107" s="2">
+        <v>1</v>
+      </c>
+      <c r="U107" s="2">
+        <v>31</v>
+      </c>
+      <c r="V107" s="2">
+        <v>31</v>
+      </c>
+      <c r="W107" s="2">
+        <v>3</v>
+      </c>
+      <c r="X107" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C108" s="2">
+        <v>2</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+      <c r="E108" s="2">
+        <v>61</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1</v>
+      </c>
+      <c r="G108" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="H108" s="7">
+        <v>1</v>
+      </c>
+      <c r="I108" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="J108" s="7">
+        <v>1</v>
+      </c>
+      <c r="K108" s="7">
+        <v>1</v>
+      </c>
+      <c r="L108" s="2">
+        <v>5</v>
+      </c>
+      <c r="M108" s="2">
+        <v>36</v>
+      </c>
+      <c r="N108" s="2">
+        <v>36</v>
+      </c>
+      <c r="O108" s="2">
+        <v>0</v>
+      </c>
+      <c r="P108" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q108" s="7">
+        <v>0</v>
+      </c>
+      <c r="R108" s="7">
+        <v>0</v>
+      </c>
+      <c r="S108" s="7">
+        <v>0</v>
+      </c>
+      <c r="T108" s="2">
+        <v>0</v>
+      </c>
+      <c r="U108" s="2">
+        <v>25</v>
+      </c>
+      <c r="V108" s="2">
+        <v>25</v>
+      </c>
+      <c r="W108" s="2">
+        <v>9</v>
+      </c>
+      <c r="X108" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C109" s="2">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2">
+        <v>2</v>
+      </c>
+      <c r="E109" s="2">
+        <v>13</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+      <c r="G109" s="7">
+        <v>1</v>
+      </c>
+      <c r="H109" s="7">
+        <v>1</v>
+      </c>
+      <c r="I109" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="J109" s="7">
+        <v>1</v>
+      </c>
+      <c r="K109" s="7">
+        <v>1</v>
+      </c>
+      <c r="L109" s="2">
+        <v>5</v>
+      </c>
+      <c r="M109" s="2">
+        <v>9</v>
+      </c>
+      <c r="N109" s="2">
+        <v>9</v>
+      </c>
+      <c r="O109" s="2">
+        <v>2</v>
+      </c>
+      <c r="P109" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="7">
+        <v>0</v>
+      </c>
+      <c r="R109" s="7">
+        <v>0</v>
+      </c>
+      <c r="S109" s="7">
+        <v>0</v>
+      </c>
+      <c r="T109" s="2">
+        <v>0</v>
+      </c>
+      <c r="U109" s="2">
+        <v>4</v>
+      </c>
+      <c r="V109" s="2">
+        <v>4</v>
+      </c>
+      <c r="W109" s="2">
+        <v>1</v>
+      </c>
+      <c r="X109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D110" s="2">
+        <v>3</v>
+      </c>
+      <c r="E110" s="2">
+        <v>70</v>
+      </c>
+      <c r="F110" s="2">
+        <v>0</v>
+      </c>
+      <c r="G110" s="7">
+        <v>0</v>
+      </c>
+      <c r="H110" s="7">
+        <v>0</v>
+      </c>
+      <c r="I110" s="7">
+        <v>0</v>
+      </c>
+      <c r="J110" s="7">
+        <v>0</v>
+      </c>
+      <c r="K110" s="7">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2">
+        <v>0</v>
+      </c>
+      <c r="M110" s="2">
+        <v>41</v>
+      </c>
+      <c r="N110" s="2">
+        <v>41</v>
+      </c>
+      <c r="O110" s="2">
+        <v>7</v>
+      </c>
+      <c r="P110" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q110" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="R110" s="7">
+        <v>0</v>
+      </c>
+      <c r="S110" s="7">
+        <v>0</v>
+      </c>
+      <c r="T110" s="2">
+        <v>1</v>
+      </c>
+      <c r="U110" s="2">
+        <v>29</v>
+      </c>
+      <c r="V110" s="2">
+        <v>29</v>
+      </c>
+      <c r="W110" s="2">
+        <v>1</v>
+      </c>
+      <c r="X110" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B112" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C113" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C116" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C117" s="2">
+        <v>1</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E117" s="2">
+        <v>40</v>
+      </c>
+      <c r="F117" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C118" s="2">
+        <v>2</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E118" s="2">
+        <v>40</v>
+      </c>
+      <c r="F118" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C119" s="2">
+        <v>3</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E119" s="2">
+        <v>40</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C120" s="2">
+        <v>4</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E120" s="2">
+        <v>40</v>
+      </c>
+      <c r="F120" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C121" s="2">
+        <v>5</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E121" s="2">
+        <v>40</v>
+      </c>
+      <c r="F121" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C123" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D124" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D125" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C126" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D127" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B130" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C131" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C134" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C135" s="2">
+        <v>1</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E135" s="2">
+        <v>40</v>
+      </c>
+      <c r="F135" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C136" s="2">
+        <v>2</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E136" s="2">
+        <v>40</v>
+      </c>
+      <c r="F136" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C137" s="2">
+        <v>3</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E137" s="2">
+        <v>40</v>
+      </c>
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C138" s="2">
+        <v>4</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138" s="2">
+        <v>40</v>
+      </c>
+      <c r="F138" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C139" s="2">
+        <v>5</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E139" s="2">
+        <v>40</v>
+      </c>
+      <c r="F139" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C141" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D142" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D143" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C144" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="145" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="D145" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B147" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="148" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C148" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q148" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="R148" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="U148" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="V148" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="W148" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="X148" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C149" s="2">
+        <v>1</v>
+      </c>
+      <c r="D149" s="2">
+        <v>1</v>
+      </c>
+      <c r="E149" s="2">
+        <v>66</v>
+      </c>
+      <c r="F149" s="2">
+        <v>1</v>
+      </c>
+      <c r="G149" s="7">
+        <v>1</v>
+      </c>
+      <c r="H149" s="7">
+        <v>1</v>
+      </c>
+      <c r="I149" s="7">
+        <v>1</v>
+      </c>
+      <c r="J149" s="7">
+        <v>1</v>
+      </c>
+      <c r="K149" s="7">
+        <v>1</v>
+      </c>
+      <c r="L149" s="2">
+        <v>5</v>
+      </c>
+      <c r="M149" s="2">
+        <v>41</v>
+      </c>
+      <c r="N149" s="2">
+        <v>40</v>
+      </c>
+      <c r="O149" s="2">
+        <v>2</v>
+      </c>
+      <c r="P149" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q149" s="7">
+        <v>0</v>
+      </c>
+      <c r="R149" s="7">
+        <v>0</v>
+      </c>
+      <c r="S149" s="7">
+        <v>0</v>
+      </c>
+      <c r="T149" s="2">
+        <v>0</v>
+      </c>
+      <c r="U149" s="2">
+        <v>25</v>
+      </c>
+      <c r="V149" s="2">
+        <v>24</v>
+      </c>
+      <c r="W149" s="2">
+        <v>7</v>
+      </c>
+      <c r="X149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C150" s="2">
+        <v>1</v>
+      </c>
+      <c r="D150" s="2">
+        <v>2</v>
+      </c>
+      <c r="E150" s="2">
+        <v>25</v>
+      </c>
+      <c r="F150" s="2">
+        <v>1</v>
+      </c>
+      <c r="G150" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="H150" s="7">
+        <v>1</v>
+      </c>
+      <c r="I150" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="J150" s="7">
+        <v>1</v>
+      </c>
+      <c r="K150" s="7">
+        <v>1</v>
+      </c>
+      <c r="L150" s="2">
+        <v>5</v>
+      </c>
+      <c r="M150" s="2">
+        <v>16</v>
+      </c>
+      <c r="N150" s="2">
+        <v>16</v>
+      </c>
+      <c r="O150" s="2">
+        <v>2</v>
+      </c>
+      <c r="P150" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q150" s="7">
+        <v>0</v>
+      </c>
+      <c r="R150" s="7">
+        <v>0</v>
+      </c>
+      <c r="S150" s="7">
+        <v>0</v>
+      </c>
+      <c r="T150" s="2">
+        <v>0</v>
+      </c>
+      <c r="U150" s="2">
+        <v>9</v>
+      </c>
+      <c r="V150" s="2">
+        <v>9</v>
+      </c>
+      <c r="W150" s="2">
+        <v>1</v>
+      </c>
+      <c r="X150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C151" s="2">
+        <v>1</v>
+      </c>
+      <c r="D151" s="2">
+        <v>3</v>
+      </c>
+      <c r="E151" s="2">
+        <v>55</v>
+      </c>
+      <c r="F151" s="2">
+        <v>0</v>
+      </c>
+      <c r="G151" s="7">
+        <v>0</v>
+      </c>
+      <c r="H151" s="7">
+        <v>0</v>
+      </c>
+      <c r="I151" s="7">
+        <v>0</v>
+      </c>
+      <c r="J151" s="7">
+        <v>0</v>
+      </c>
+      <c r="K151" s="7">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2">
+        <v>0</v>
+      </c>
+      <c r="M151" s="2">
+        <v>33</v>
+      </c>
+      <c r="N151" s="2">
+        <v>33</v>
+      </c>
+      <c r="O151" s="2">
+        <v>4</v>
+      </c>
+      <c r="P151" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q151" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="R151" s="7">
+        <v>0</v>
+      </c>
+      <c r="S151" s="7">
+        <v>0</v>
+      </c>
+      <c r="T151" s="2">
+        <v>1</v>
+      </c>
+      <c r="U151" s="2">
+        <v>22</v>
+      </c>
+      <c r="V151" s="2">
+        <v>22</v>
+      </c>
+      <c r="W151" s="2">
+        <v>3</v>
+      </c>
+      <c r="X151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C152" s="2">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1</v>
+      </c>
+      <c r="E152" s="2">
+        <v>57</v>
+      </c>
+      <c r="F152" s="2">
+        <v>1</v>
+      </c>
+      <c r="G152" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="H152" s="7">
+        <v>1</v>
+      </c>
+      <c r="I152" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="J152" s="7">
+        <v>1</v>
+      </c>
+      <c r="K152" s="7">
+        <v>1</v>
+      </c>
+      <c r="L152" s="2">
+        <v>5</v>
+      </c>
+      <c r="M152" s="2">
+        <v>36</v>
+      </c>
+      <c r="N152" s="2">
+        <v>36</v>
+      </c>
+      <c r="O152" s="2">
+        <v>5</v>
+      </c>
+      <c r="P152" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q152" s="7">
+        <v>0</v>
+      </c>
+      <c r="R152" s="7">
+        <v>0</v>
+      </c>
+      <c r="S152" s="7">
+        <v>0</v>
+      </c>
+      <c r="T152" s="2">
+        <v>0</v>
+      </c>
+      <c r="U152" s="2">
+        <v>21</v>
+      </c>
+      <c r="V152" s="2">
+        <v>21</v>
+      </c>
+      <c r="W152" s="2">
+        <v>0</v>
+      </c>
+      <c r="X152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C153" s="2">
+        <v>2</v>
+      </c>
+      <c r="D153" s="2">
+        <v>2</v>
+      </c>
+      <c r="E153" s="2">
+        <v>6</v>
+      </c>
+      <c r="F153" s="2">
+        <v>1</v>
+      </c>
+      <c r="G153" s="7">
+        <v>1</v>
+      </c>
+      <c r="H153" s="7">
+        <v>1</v>
+      </c>
+      <c r="I153" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="J153" s="7">
+        <v>1</v>
+      </c>
+      <c r="K153" s="7">
+        <v>1</v>
+      </c>
+      <c r="L153" s="2">
+        <v>5</v>
+      </c>
+      <c r="M153" s="2">
+        <v>4</v>
+      </c>
+      <c r="N153" s="2">
+        <v>4</v>
+      </c>
+      <c r="O153" s="2">
+        <v>0</v>
+      </c>
+      <c r="P153" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q153" s="7">
+        <v>0</v>
+      </c>
+      <c r="R153" s="7">
+        <v>0</v>
+      </c>
+      <c r="S153" s="7">
+        <v>0</v>
+      </c>
+      <c r="T153" s="2">
+        <v>0</v>
+      </c>
+      <c r="U153" s="2">
+        <v>2</v>
+      </c>
+      <c r="V153" s="2">
+        <v>2</v>
+      </c>
+      <c r="W153" s="2">
+        <v>0</v>
+      </c>
+      <c r="X153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C154" s="2">
+        <v>2</v>
+      </c>
+      <c r="D154" s="2">
+        <v>3</v>
+      </c>
+      <c r="E154" s="2">
+        <v>42</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+      <c r="G154" s="7">
+        <v>0</v>
+      </c>
+      <c r="H154" s="7">
+        <v>0</v>
+      </c>
+      <c r="I154" s="7">
+        <v>0</v>
+      </c>
+      <c r="J154" s="7">
+        <v>0</v>
+      </c>
+      <c r="K154" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="L154" s="2">
+        <v>1</v>
+      </c>
+      <c r="M154" s="2">
+        <v>26</v>
+      </c>
+      <c r="N154" s="2">
+        <v>26</v>
+      </c>
+      <c r="O154" s="2">
+        <v>5</v>
+      </c>
+      <c r="P154" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q154" s="7">
+        <v>0</v>
+      </c>
+      <c r="R154" s="7">
+        <v>0</v>
+      </c>
+      <c r="S154" s="7">
+        <v>0</v>
+      </c>
+      <c r="T154" s="2">
+        <v>0</v>
+      </c>
+      <c r="U154" s="2">
+        <v>16</v>
+      </c>
+      <c r="V154" s="2">
+        <v>16</v>
+      </c>
+      <c r="W154" s="2">
+        <v>3</v>
+      </c>
+      <c r="X154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C155" s="2">
+        <v>3</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1</v>
+      </c>
+      <c r="E155" s="2">
+        <v>60</v>
+      </c>
+      <c r="F155" s="2">
+        <v>1</v>
+      </c>
+      <c r="G155" s="7">
+        <v>1</v>
+      </c>
+      <c r="H155" s="7">
+        <v>1</v>
+      </c>
+      <c r="I155" s="7">
+        <v>1</v>
+      </c>
+      <c r="J155" s="7">
+        <v>1</v>
+      </c>
+      <c r="K155" s="7">
+        <v>1</v>
+      </c>
+      <c r="L155" s="2">
+        <v>5</v>
+      </c>
+      <c r="M155" s="2">
+        <v>36</v>
+      </c>
+      <c r="N155" s="2">
+        <v>36</v>
+      </c>
+      <c r="O155" s="2">
+        <v>0</v>
+      </c>
+      <c r="P155" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q155" s="7">
+        <v>0</v>
+      </c>
+      <c r="R155" s="7">
+        <v>0</v>
+      </c>
+      <c r="S155" s="7">
+        <v>0</v>
+      </c>
+      <c r="T155" s="2">
+        <v>0</v>
+      </c>
+      <c r="U155" s="2">
+        <v>24</v>
+      </c>
+      <c r="V155" s="2">
+        <v>24</v>
+      </c>
+      <c r="W155" s="2">
+        <v>0</v>
+      </c>
+      <c r="X155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C156" s="2">
+        <v>3</v>
+      </c>
+      <c r="D156" s="2">
+        <v>2</v>
+      </c>
+      <c r="E156" s="2">
+        <v>10</v>
+      </c>
+      <c r="F156" s="2">
+        <v>1</v>
+      </c>
+      <c r="G156" s="7">
+        <v>1</v>
+      </c>
+      <c r="H156" s="7">
+        <v>1</v>
+      </c>
+      <c r="I156" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="J156" s="7">
+        <v>1</v>
+      </c>
+      <c r="K156" s="7">
+        <v>1</v>
+      </c>
+      <c r="L156" s="2">
+        <v>5</v>
+      </c>
+      <c r="M156" s="2">
+        <v>7</v>
+      </c>
+      <c r="N156" s="2">
+        <v>7</v>
+      </c>
+      <c r="O156" s="2">
+        <v>0</v>
+      </c>
+      <c r="P156" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="7">
+        <v>0</v>
+      </c>
+      <c r="R156" s="7">
+        <v>0</v>
+      </c>
+      <c r="S156" s="7">
+        <v>0</v>
+      </c>
+      <c r="T156" s="2">
+        <v>0</v>
+      </c>
+      <c r="U156" s="2">
+        <v>3</v>
+      </c>
+      <c r="V156" s="2">
+        <v>3</v>
+      </c>
+      <c r="W156" s="2">
+        <v>0</v>
+      </c>
+      <c r="X156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C157" s="2">
+        <v>3</v>
+      </c>
+      <c r="D157" s="2">
+        <v>3</v>
+      </c>
+      <c r="E157" s="2">
+        <v>40</v>
+      </c>
+      <c r="F157" s="2">
+        <v>1</v>
+      </c>
+      <c r="G157" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="H157" s="7">
+        <v>0</v>
+      </c>
+      <c r="I157" s="7">
+        <v>0</v>
+      </c>
+      <c r="J157" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="K157" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="L157" s="2">
+        <v>3</v>
+      </c>
+      <c r="M157" s="2">
+        <v>26</v>
+      </c>
+      <c r="N157" s="2">
+        <v>26</v>
+      </c>
+      <c r="O157" s="2">
+        <v>1</v>
+      </c>
+      <c r="P157" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q157" s="7">
+        <v>0</v>
+      </c>
+      <c r="R157" s="7">
+        <v>0</v>
+      </c>
+      <c r="S157" s="7">
+        <v>0</v>
+      </c>
+      <c r="T157" s="2">
+        <v>0</v>
+      </c>
+      <c r="U157" s="2">
+        <v>14</v>
+      </c>
+      <c r="V157" s="2">
+        <v>14</v>
+      </c>
+      <c r="W157" s="2">
+        <v>2</v>
+      </c>
+      <c r="X157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B160" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="162" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B162" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="163" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C163" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N163" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="P163" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q163" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="R163" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S163" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T163" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="U163" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V163" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="W163" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="X163" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="164" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C164" s="2">
+        <v>1</v>
+      </c>
+      <c r="D164" s="2">
+        <v>1</v>
+      </c>
+      <c r="E164" s="2">
+        <v>26</v>
+      </c>
+      <c r="F164" s="2">
+        <v>1</v>
+      </c>
+      <c r="G164" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="H164" s="7">
+        <v>1</v>
+      </c>
+      <c r="I164" s="7">
+        <v>0.82</v>
+      </c>
+      <c r="J164" s="7">
+        <v>1</v>
+      </c>
+      <c r="K164" s="7">
+        <v>1</v>
+      </c>
+      <c r="L164" s="2">
+        <v>5</v>
+      </c>
+      <c r="M164" s="2">
+        <v>16</v>
+      </c>
+      <c r="N164" s="2">
+        <v>15</v>
+      </c>
+      <c r="O164" s="2">
+        <v>5</v>
+      </c>
+      <c r="P164" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q164" s="7">
+        <v>0</v>
+      </c>
+      <c r="R164" s="7">
+        <v>0</v>
+      </c>
+      <c r="S164" s="7">
+        <v>0</v>
+      </c>
+      <c r="T164" s="2">
+        <v>0</v>
+      </c>
+      <c r="U164" s="2">
+        <v>10</v>
+      </c>
+      <c r="V164" s="2">
+        <v>10</v>
+      </c>
+      <c r="W164" s="2">
+        <v>6</v>
+      </c>
+      <c r="X164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C165" s="2">
+        <v>1</v>
+      </c>
+      <c r="D165" s="2">
+        <v>2</v>
+      </c>
+      <c r="E165" s="2">
+        <v>38</v>
+      </c>
+      <c r="F165" s="2">
+        <v>1</v>
+      </c>
+      <c r="G165" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="H165" s="7">
+        <v>1</v>
+      </c>
+      <c r="I165" s="7">
+        <v>1</v>
+      </c>
+      <c r="J165" s="7">
+        <v>1</v>
+      </c>
+      <c r="K165" s="7">
+        <v>1</v>
+      </c>
+      <c r="L165" s="2">
+        <v>5</v>
+      </c>
+      <c r="M165" s="2">
+        <v>24</v>
+      </c>
+      <c r="N165" s="2">
+        <v>24</v>
+      </c>
+      <c r="O165" s="2">
+        <v>2</v>
+      </c>
+      <c r="P165" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q165" s="7">
+        <v>0</v>
+      </c>
+      <c r="R165" s="7">
+        <v>0</v>
+      </c>
+      <c r="S165" s="7">
+        <v>0</v>
+      </c>
+      <c r="T165" s="2">
+        <v>0</v>
+      </c>
+      <c r="U165" s="2">
+        <v>14</v>
+      </c>
+      <c r="V165" s="2">
+        <v>14</v>
+      </c>
+      <c r="W165" s="2">
+        <v>0</v>
+      </c>
+      <c r="X165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C166" s="2">
+        <v>1</v>
+      </c>
+      <c r="D166" s="2">
+        <v>3</v>
+      </c>
+      <c r="E166" s="2">
+        <v>34</v>
+      </c>
+      <c r="F166" s="2">
+        <v>1</v>
+      </c>
+      <c r="G166" s="7">
+        <v>0</v>
+      </c>
+      <c r="H166" s="7">
+        <v>0</v>
+      </c>
+      <c r="I166" s="7">
+        <v>0</v>
+      </c>
+      <c r="J166" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="K166" s="7">
+        <v>1</v>
+      </c>
+      <c r="L166" s="2">
+        <v>2</v>
+      </c>
+      <c r="M166" s="2">
+        <v>21</v>
+      </c>
+      <c r="N166" s="2">
+        <v>21</v>
+      </c>
+      <c r="O166" s="2">
+        <v>2</v>
+      </c>
+      <c r="P166" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q166" s="7">
+        <v>0</v>
+      </c>
+      <c r="R166" s="7">
+        <v>0</v>
+      </c>
+      <c r="S166" s="7">
+        <v>0</v>
+      </c>
+      <c r="T166" s="2">
+        <v>0</v>
+      </c>
+      <c r="U166" s="2">
+        <v>13</v>
+      </c>
+      <c r="V166" s="2">
+        <v>13</v>
+      </c>
+      <c r="W166" s="2">
+        <v>0</v>
+      </c>
+      <c r="X166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C167" s="2">
+        <v>2</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45</v>
+      </c>
+      <c r="F167" s="2">
+        <v>1</v>
+      </c>
+      <c r="G167" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="H167" s="7">
+        <v>1</v>
+      </c>
+      <c r="I167" s="7">
+        <v>1</v>
+      </c>
+      <c r="J167" s="7">
+        <v>1</v>
+      </c>
+      <c r="K167" s="7">
+        <v>1</v>
+      </c>
+      <c r="L167" s="2">
+        <v>5</v>
+      </c>
+      <c r="M167" s="2">
+        <v>27</v>
+      </c>
+      <c r="N167" s="2">
+        <v>27</v>
+      </c>
+      <c r="O167" s="2">
+        <v>1</v>
+      </c>
+      <c r="P167" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q167" s="7">
+        <v>0</v>
+      </c>
+      <c r="R167" s="7">
+        <v>0</v>
+      </c>
+      <c r="S167" s="7">
+        <v>0</v>
+      </c>
+      <c r="T167" s="2">
+        <v>0</v>
+      </c>
+      <c r="U167" s="2">
+        <v>18</v>
+      </c>
+      <c r="V167" s="2">
+        <v>18</v>
+      </c>
+      <c r="W167" s="2">
+        <v>3</v>
+      </c>
+      <c r="X167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C168" s="2">
+        <v>2</v>
+      </c>
+      <c r="D168" s="2">
+        <v>2</v>
+      </c>
+      <c r="E168" s="2">
+        <v>29</v>
+      </c>
+      <c r="F168" s="2">
+        <v>1</v>
+      </c>
+      <c r="G168" s="7">
+        <v>1</v>
+      </c>
+      <c r="H168" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="I168" s="7">
+        <v>0.99</v>
+      </c>
+      <c r="J168" s="7">
+        <v>1</v>
+      </c>
+      <c r="K168" s="7">
+        <v>1</v>
+      </c>
+      <c r="L168" s="2">
+        <v>5</v>
+      </c>
+      <c r="M168" s="2">
+        <v>19</v>
+      </c>
+      <c r="N168" s="2">
+        <v>19</v>
+      </c>
+      <c r="O168" s="2">
+        <v>1</v>
+      </c>
+      <c r="P168" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q168" s="7">
+        <v>0</v>
+      </c>
+      <c r="R168" s="7">
+        <v>0</v>
+      </c>
+      <c r="S168" s="7">
+        <v>0</v>
+      </c>
+      <c r="T168" s="2">
+        <v>0</v>
+      </c>
+      <c r="U168" s="2">
+        <v>10</v>
+      </c>
+      <c r="V168" s="2">
+        <v>10</v>
+      </c>
+      <c r="W168" s="2">
+        <v>0</v>
+      </c>
+      <c r="X168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C169" s="2">
+        <v>2</v>
+      </c>
+      <c r="D169" s="2">
+        <v>3</v>
+      </c>
+      <c r="E169" s="2">
+        <v>37</v>
+      </c>
+      <c r="F169" s="2">
+        <v>1</v>
+      </c>
+      <c r="G169" s="7">
+        <v>0</v>
+      </c>
+      <c r="H169" s="7">
+        <v>0</v>
+      </c>
+      <c r="I169" s="7">
+        <v>0</v>
+      </c>
+      <c r="J169" s="7">
+        <v>0</v>
+      </c>
+      <c r="K169" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="L169" s="2">
+        <v>1</v>
+      </c>
+      <c r="M169" s="2">
+        <v>22</v>
+      </c>
+      <c r="N169" s="2">
+        <v>22</v>
+      </c>
+      <c r="O169" s="2">
+        <v>4</v>
+      </c>
+      <c r="P169" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q169" s="7">
+        <v>0</v>
+      </c>
+      <c r="R169" s="7">
+        <v>0</v>
+      </c>
+      <c r="S169" s="7">
+        <v>0</v>
+      </c>
+      <c r="T169" s="2">
+        <v>0</v>
+      </c>
+      <c r="U169" s="2">
+        <v>15</v>
+      </c>
+      <c r="V169" s="2">
+        <v>15</v>
+      </c>
+      <c r="W169" s="2">
+        <v>2</v>
+      </c>
+      <c r="X169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C170" s="2">
+        <v>3</v>
+      </c>
+      <c r="D170" s="2">
+        <v>1</v>
+      </c>
+      <c r="E170" s="2">
+        <v>42</v>
+      </c>
+      <c r="F170" s="2">
+        <v>1</v>
+      </c>
+      <c r="G170" s="7">
+        <v>1</v>
+      </c>
+      <c r="H170" s="7">
+        <v>1</v>
+      </c>
+      <c r="I170" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="J170" s="7">
+        <v>1</v>
+      </c>
+      <c r="K170" s="7">
+        <v>1</v>
+      </c>
+      <c r="L170" s="2">
+        <v>5</v>
+      </c>
+      <c r="M170" s="2">
+        <v>27</v>
+      </c>
+      <c r="N170" s="2">
+        <v>27</v>
+      </c>
+      <c r="O170" s="2">
+        <v>1</v>
+      </c>
+      <c r="P170" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q170" s="7">
+        <v>0</v>
+      </c>
+      <c r="R170" s="7">
+        <v>0</v>
+      </c>
+      <c r="S170" s="7">
+        <v>0</v>
+      </c>
+      <c r="T170" s="2">
+        <v>0</v>
+      </c>
+      <c r="U170" s="2">
+        <v>15</v>
+      </c>
+      <c r="V170" s="2">
+        <v>15</v>
+      </c>
+      <c r="W170" s="2">
+        <v>0</v>
+      </c>
+      <c r="X170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C171" s="2">
+        <v>3</v>
+      </c>
+      <c r="D171" s="2">
+        <v>2</v>
+      </c>
+      <c r="E171" s="2">
+        <v>37</v>
+      </c>
+      <c r="F171" s="2">
+        <v>1</v>
+      </c>
+      <c r="G171" s="7">
+        <v>0.96</v>
+      </c>
+      <c r="H171" s="7">
+        <v>1</v>
+      </c>
+      <c r="I171" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="J171" s="7">
+        <v>1</v>
+      </c>
+      <c r="K171" s="7">
+        <v>1</v>
+      </c>
+      <c r="L171" s="2">
+        <v>5</v>
+      </c>
+      <c r="M171" s="2">
+        <v>24</v>
+      </c>
+      <c r="N171" s="2">
+        <v>24</v>
+      </c>
+      <c r="O171" s="2">
+        <v>2</v>
+      </c>
+      <c r="P171" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q171" s="7">
+        <v>0</v>
+      </c>
+      <c r="R171" s="7">
+        <v>0</v>
+      </c>
+      <c r="S171" s="7">
+        <v>0</v>
+      </c>
+      <c r="T171" s="2">
+        <v>0</v>
+      </c>
+      <c r="U171" s="2">
+        <v>13</v>
+      </c>
+      <c r="V171" s="2">
+        <v>13</v>
+      </c>
+      <c r="W171" s="2">
+        <v>1</v>
+      </c>
+      <c r="X171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C172" s="2">
+        <v>3</v>
+      </c>
+      <c r="D172" s="2">
+        <v>3</v>
+      </c>
+      <c r="E172" s="2">
+        <v>42</v>
+      </c>
+      <c r="F172" s="2">
+        <v>0</v>
+      </c>
+      <c r="G172" s="7">
+        <v>0</v>
+      </c>
+      <c r="H172" s="7">
+        <v>0</v>
+      </c>
+      <c r="I172" s="7">
+        <v>0</v>
+      </c>
+      <c r="J172" s="7">
+        <v>0</v>
+      </c>
+      <c r="K172" s="7">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2">
+        <v>0</v>
+      </c>
+      <c r="M172" s="2">
+        <v>24</v>
+      </c>
+      <c r="N172" s="2">
+        <v>24</v>
+      </c>
+      <c r="O172" s="2">
+        <v>0</v>
+      </c>
+      <c r="P172" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q172" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="R172" s="7">
+        <v>0</v>
+      </c>
+      <c r="S172" s="7">
+        <v>0</v>
+      </c>
+      <c r="T172" s="2">
+        <v>1</v>
+      </c>
+      <c r="U172" s="2">
+        <v>18</v>
+      </c>
+      <c r="V172" s="2">
+        <v>18</v>
+      </c>
+      <c r="W172" s="2">
+        <v>2</v>
+      </c>
+      <c r="X172" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B174" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C175" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C176" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B178" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="179" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C179" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K179" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L179" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M179" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N179" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="P179" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q179" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="R179" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="S179" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T179" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="U179" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="V179" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="W179" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="X179" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="180" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C180" s="2">
+        <v>1</v>
+      </c>
+      <c r="D180" s="2">
+        <v>1</v>
+      </c>
+      <c r="E180" s="2">
+        <v>46</v>
+      </c>
+      <c r="F180" s="2">
+        <v>1</v>
+      </c>
+      <c r="G180" s="7">
+        <v>1</v>
+      </c>
+      <c r="H180" s="7">
+        <v>1</v>
+      </c>
+      <c r="I180" s="7">
+        <v>1</v>
+      </c>
+      <c r="J180" s="7">
+        <v>1</v>
+      </c>
+      <c r="K180" s="7">
+        <v>1</v>
+      </c>
+      <c r="L180" s="2">
+        <v>5</v>
+      </c>
+      <c r="M180" s="2">
+        <v>28</v>
+      </c>
+      <c r="N180" s="2">
+        <v>27</v>
+      </c>
+      <c r="O180" s="2">
+        <v>5</v>
+      </c>
+      <c r="P180" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q180" s="7">
+        <v>0</v>
+      </c>
+      <c r="R180" s="7">
+        <v>0</v>
+      </c>
+      <c r="S180" s="7">
+        <v>0</v>
+      </c>
+      <c r="T180" s="2">
+        <v>0</v>
+      </c>
+      <c r="U180" s="2">
+        <v>18</v>
+      </c>
+      <c r="V180" s="2">
+        <v>18</v>
+      </c>
+      <c r="W180" s="2">
+        <v>7</v>
+      </c>
+      <c r="X180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C181" s="2">
+        <v>1</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2</v>
+      </c>
+      <c r="E181" s="2">
+        <v>43</v>
+      </c>
+      <c r="F181" s="2">
+        <v>1</v>
+      </c>
+      <c r="G181" s="7">
+        <v>1</v>
+      </c>
+      <c r="H181" s="7">
+        <v>1</v>
+      </c>
+      <c r="I181" s="7">
+        <v>1</v>
+      </c>
+      <c r="J181" s="7">
+        <v>1</v>
+      </c>
+      <c r="K181" s="7">
+        <v>1</v>
+      </c>
+      <c r="L181" s="2">
+        <v>5</v>
+      </c>
+      <c r="M181" s="2">
+        <v>28</v>
+      </c>
+      <c r="N181" s="2">
+        <v>28</v>
+      </c>
+      <c r="O181" s="2">
+        <v>4</v>
+      </c>
+      <c r="P181" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q181" s="7">
+        <v>0</v>
+      </c>
+      <c r="R181" s="7">
+        <v>0</v>
+      </c>
+      <c r="S181" s="7">
+        <v>0</v>
+      </c>
+      <c r="T181" s="2">
+        <v>0</v>
+      </c>
+      <c r="U181" s="2">
+        <v>15</v>
+      </c>
+      <c r="V181" s="2">
+        <v>15</v>
+      </c>
+      <c r="W181" s="2">
+        <v>2</v>
+      </c>
+      <c r="X181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C182" s="2">
+        <v>1</v>
+      </c>
+      <c r="D182" s="2">
+        <v>3</v>
+      </c>
+      <c r="E182" s="2">
+        <v>60</v>
+      </c>
+      <c r="F182" s="2">
+        <v>1</v>
+      </c>
+      <c r="G182" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H182" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="I182" s="7">
+        <v>0</v>
+      </c>
+      <c r="J182" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="K182" s="7">
+        <v>1</v>
+      </c>
+      <c r="L182" s="2">
+        <v>4</v>
+      </c>
+      <c r="M182" s="2">
+        <v>38</v>
+      </c>
+      <c r="N182" s="2">
+        <v>38</v>
+      </c>
+      <c r="O182" s="2">
+        <v>4</v>
+      </c>
+      <c r="P182" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q182" s="7">
+        <v>0</v>
+      </c>
+      <c r="R182" s="7">
+        <v>0</v>
+      </c>
+      <c r="S182" s="7">
+        <v>0</v>
+      </c>
+      <c r="T182" s="2">
+        <v>0</v>
+      </c>
+      <c r="U182" s="2">
+        <v>22</v>
+      </c>
+      <c r="V182" s="2">
+        <v>22</v>
+      </c>
+      <c r="W182" s="2">
+        <v>1</v>
+      </c>
+      <c r="X182" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C183" s="2">
+        <v>2</v>
+      </c>
+      <c r="D183" s="2">
+        <v>1</v>
+      </c>
+      <c r="E183" s="2">
+        <v>41</v>
+      </c>
+      <c r="F183" s="2">
+        <v>1</v>
+      </c>
+      <c r="G183" s="7">
+        <v>1</v>
+      </c>
+      <c r="H183" s="7">
+        <v>1</v>
+      </c>
+      <c r="I183" s="7">
+        <v>0.92</v>
+      </c>
+      <c r="J183" s="7">
+        <v>1</v>
+      </c>
+      <c r="K183" s="7">
+        <v>1</v>
+      </c>
+      <c r="L183" s="2">
+        <v>5</v>
+      </c>
+      <c r="M183" s="2">
+        <v>27</v>
+      </c>
+      <c r="N183" s="2">
+        <v>27</v>
+      </c>
+      <c r="O183" s="2">
+        <v>0</v>
+      </c>
+      <c r="P183" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q183" s="7">
+        <v>0</v>
+      </c>
+      <c r="R183" s="7">
+        <v>0</v>
+      </c>
+      <c r="S183" s="7">
+        <v>0</v>
+      </c>
+      <c r="T183" s="2">
+        <v>0</v>
+      </c>
+      <c r="U183" s="2">
+        <v>14</v>
+      </c>
+      <c r="V183" s="2">
+        <v>14</v>
+      </c>
+      <c r="W183" s="2">
+        <v>0</v>
+      </c>
+      <c r="X183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C184" s="2">
+        <v>2</v>
+      </c>
+      <c r="D184" s="2">
+        <v>2</v>
+      </c>
+      <c r="E184" s="2">
+        <v>32</v>
+      </c>
+      <c r="F184" s="2">
+        <v>1</v>
+      </c>
+      <c r="G184" s="7">
+        <v>1</v>
+      </c>
+      <c r="H184" s="7">
+        <v>1</v>
+      </c>
+      <c r="I184" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="J184" s="7">
+        <v>1</v>
+      </c>
+      <c r="K184" s="7">
+        <v>1</v>
+      </c>
+      <c r="L184" s="2">
+        <v>5</v>
+      </c>
+      <c r="M184" s="2">
+        <v>21</v>
+      </c>
+      <c r="N184" s="2">
+        <v>21</v>
+      </c>
+      <c r="O184" s="2">
+        <v>4</v>
+      </c>
+      <c r="P184" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q184" s="7">
+        <v>0</v>
+      </c>
+      <c r="R184" s="7">
+        <v>0</v>
+      </c>
+      <c r="S184" s="7">
+        <v>0</v>
+      </c>
+      <c r="T184" s="2">
+        <v>0</v>
+      </c>
+      <c r="U184" s="2">
+        <v>11</v>
+      </c>
+      <c r="V184" s="2">
+        <v>11</v>
+      </c>
+      <c r="W184" s="2">
+        <v>1</v>
+      </c>
+      <c r="X184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C185" s="2">
+        <v>2</v>
+      </c>
+      <c r="D185" s="2">
+        <v>3</v>
+      </c>
+      <c r="E185" s="2">
+        <v>46</v>
+      </c>
+      <c r="F185" s="2">
+        <v>0</v>
+      </c>
+      <c r="G185" s="7">
+        <v>0</v>
+      </c>
+      <c r="H185" s="7">
+        <v>0</v>
+      </c>
+      <c r="I185" s="7">
+        <v>0</v>
+      </c>
+      <c r="J185" s="7">
+        <v>0</v>
+      </c>
+      <c r="K185" s="7">
+        <v>0</v>
+      </c>
+      <c r="L185" s="2">
+        <v>0</v>
+      </c>
+      <c r="M185" s="2">
+        <v>26</v>
+      </c>
+      <c r="N185" s="2">
+        <v>26</v>
+      </c>
+      <c r="O185" s="2">
+        <v>2</v>
+      </c>
+      <c r="P185" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q185" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="R185" s="7">
+        <v>0</v>
+      </c>
+      <c r="S185" s="7">
+        <v>0</v>
+      </c>
+      <c r="T185" s="2">
+        <v>1</v>
+      </c>
+      <c r="U185" s="2">
+        <v>20</v>
+      </c>
+      <c r="V185" s="2">
+        <v>20</v>
+      </c>
+      <c r="W185" s="2">
+        <v>0</v>
+      </c>
+      <c r="X185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C186" s="2">
+        <v>3</v>
+      </c>
+      <c r="D186" s="2">
+        <v>1</v>
+      </c>
+      <c r="E186" s="2">
+        <v>37</v>
+      </c>
+      <c r="F186" s="2">
+        <v>1</v>
+      </c>
+      <c r="G186" s="7">
+        <v>1</v>
+      </c>
+      <c r="H186" s="7">
+        <v>1</v>
+      </c>
+      <c r="I186" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="J186" s="7">
+        <v>1</v>
+      </c>
+      <c r="K186" s="7">
+        <v>1</v>
+      </c>
+      <c r="L186" s="2">
+        <v>5</v>
+      </c>
+      <c r="M186" s="2">
+        <v>24</v>
+      </c>
+      <c r="N186" s="2">
+        <v>24</v>
+      </c>
+      <c r="O186" s="2">
+        <v>1</v>
+      </c>
+      <c r="P186" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q186" s="7">
+        <v>0</v>
+      </c>
+      <c r="R186" s="7">
+        <v>0</v>
+      </c>
+      <c r="S186" s="7">
+        <v>0</v>
+      </c>
+      <c r="T186" s="2">
+        <v>0</v>
+      </c>
+      <c r="U186" s="2">
+        <v>13</v>
+      </c>
+      <c r="V186" s="2">
+        <v>13</v>
+      </c>
+      <c r="W186" s="2">
+        <v>0</v>
+      </c>
+      <c r="X186" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C187" s="2">
+        <v>3</v>
+      </c>
+      <c r="D187" s="2">
+        <v>2</v>
+      </c>
+      <c r="E187" s="2">
+        <v>35</v>
+      </c>
+      <c r="F187" s="2">
+        <v>1</v>
+      </c>
+      <c r="G187" s="7">
+        <v>1</v>
+      </c>
+      <c r="H187" s="7">
+        <v>0.98</v>
+      </c>
+      <c r="I187" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="J187" s="7">
+        <v>1</v>
+      </c>
+      <c r="K187" s="7">
+        <v>1</v>
+      </c>
+      <c r="L187" s="2">
+        <v>5</v>
+      </c>
+      <c r="M187" s="2">
+        <v>23</v>
+      </c>
+      <c r="N187" s="2">
+        <v>23</v>
+      </c>
+      <c r="O187" s="2">
+        <v>2</v>
+      </c>
+      <c r="P187" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q187" s="7">
+        <v>0</v>
+      </c>
+      <c r="R187" s="7">
+        <v>0</v>
+      </c>
+      <c r="S187" s="7">
+        <v>0</v>
+      </c>
+      <c r="T187" s="2">
+        <v>0</v>
+      </c>
+      <c r="U187" s="2">
+        <v>12</v>
+      </c>
+      <c r="V187" s="2">
+        <v>12</v>
+      </c>
+      <c r="W187" s="2">
+        <v>2</v>
+      </c>
+      <c r="X187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C188" s="2">
+        <v>3</v>
+      </c>
+      <c r="D188" s="2">
+        <v>3</v>
+      </c>
+      <c r="E188" s="2">
+        <v>36</v>
+      </c>
+      <c r="F188" s="2">
+        <v>1</v>
+      </c>
+      <c r="G188" s="7">
+        <v>0.27</v>
+      </c>
+      <c r="H188" s="7">
+        <v>0</v>
+      </c>
+      <c r="I188" s="7">
+        <v>0</v>
+      </c>
+      <c r="J188" s="7">
+        <v>0</v>
+      </c>
+      <c r="K188" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="L188" s="2">
+        <v>2</v>
+      </c>
+      <c r="M188" s="2">
+        <v>23</v>
+      </c>
+      <c r="N188" s="2">
+        <v>23</v>
+      </c>
+      <c r="O188" s="2">
+        <v>4</v>
+      </c>
+      <c r="P188" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q188" s="7">
+        <v>0</v>
+      </c>
+      <c r="R188" s="7">
+        <v>0</v>
+      </c>
+      <c r="S188" s="7">
+        <v>0</v>
+      </c>
+      <c r="T188" s="2">
+        <v>0</v>
+      </c>
+      <c r="U188" s="2">
+        <v>13</v>
+      </c>
+      <c r="V188" s="2">
+        <v>13</v>
+      </c>
+      <c r="W188" s="2">
+        <v>3</v>
+      </c>
+      <c r="X188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B190" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C191" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="192" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="C192" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B194" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C195" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C196" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C197" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>